--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD383E0F-0F6D-4AFD-AA17-A340833AFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF723EC-9249-4BCE-A0DD-E0F3CD2B0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1932,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF723EC-9249-4BCE-A0DD-E0F3CD2B0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA953F-A829-4B9C-B50B-074B19653000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1491,6 +1491,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1513,7 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1552,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1895,10 +1914,10 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1906,10 +1925,10 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="12" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1917,21 +1936,21 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="12" t="s">
         <v>465</v>
       </c>
     </row>
@@ -1939,11 +1958,11 @@
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
